--- a/AEF_template/AEF_CMA6_second_iteration.xlsx
+++ b/AEF_template/AEF_CMA6_second_iteration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfccc365.sharepoint.com/sites/Mitigation/Paris Agreement Article 6/Article 6.2/03_CARP/consistency/AEF_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{0B9CFA14-F56A-4387-990D-A503B02D9DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12826E20-D92C-124A-A1C9-3DE125F7B6F8}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0B9CFA14-F56A-4387-990D-A503B02D9DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{999BFF26-2DCF-1A4B-85F0-A2DD9FAE038D}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="2440" windowWidth="22720" windowHeight="22960" tabRatio="618" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8140" yWindow="2680" windowWidth="22720" windowHeight="22960" tabRatio="618" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -225,9 +225,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>dd/mm/yyyy</t>
-  </si>
-  <si>
     <t>Authorization details</t>
   </si>
   <si>
@@ -694,6 +691,9 @@
   </si>
   <si>
     <t>Unique identifier of the acquiring participating Party, or where the acquisition occurs by the Adaptation Fund, a unique identifier for the Adaptation Fund, as per common nomenclatures. This field is applicable to the actions type ‘first transfer’ and ‘transfer’. In other cases, this field is reported as ‘Not applicable’ (NA).</t>
+  </si>
+  <si>
+    <t>d/m/yyyy</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1586,10 +1586,10 @@
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1625,12 +1625,12 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="19" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
     </row>
     <row r="8" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B8" s="74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="75" t="s">
         <v>23</v>
@@ -1680,18 +1680,18 @@
     </row>
     <row r="10" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B10" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B11" s="74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
@@ -1712,16 +1712,16 @@
     </row>
     <row r="14" spans="2:3" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:3" ht="19" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1737,7 +1737,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -1750,10 +1750,10 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
@@ -1761,15 +1761,15 @@
         <v>31</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B24" s="74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
@@ -1777,23 +1777,23 @@
         <v>32</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="46" x14ac:dyDescent="0.2">
       <c r="B26" s="74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B27" s="74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="28" x14ac:dyDescent="0.2">
@@ -1822,18 +1822,18 @@
     </row>
     <row r="31" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B31" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B32" s="74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="70" x14ac:dyDescent="0.2">
@@ -1841,23 +1841,23 @@
         <v>38</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B34" s="74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B35" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="28" x14ac:dyDescent="0.2">
@@ -1865,23 +1865,23 @@
         <v>39</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B37" s="74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="19" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
@@ -1915,7 +1915,7 @@
     </row>
     <row r="45" spans="2:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C45" s="81" t="s">
         <v>25</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
@@ -1934,23 +1934,23 @@
         <v>28</v>
       </c>
       <c r="C47" s="75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B48" s="74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B49" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" s="75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1958,31 +1958,31 @@
         <v>42</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B53" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="42" x14ac:dyDescent="0.2">
@@ -1990,23 +1990,23 @@
         <v>43</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
@@ -2019,34 +2019,34 @@
     </row>
     <row r="58" spans="2:3" ht="46" x14ac:dyDescent="0.2">
       <c r="B58" s="74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" s="75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B59" s="74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" s="75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="B60" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="75" t="s">
         <v>147</v>
-      </c>
-      <c r="C60" s="75" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B61" s="74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" s="75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
@@ -2062,71 +2062,71 @@
         <v>45</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="70" x14ac:dyDescent="0.2">
       <c r="B64" s="74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" s="75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="70" x14ac:dyDescent="0.2">
       <c r="B65" s="74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="84" x14ac:dyDescent="0.2">
       <c r="B66" s="74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B67" s="74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" s="75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B68" s="74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B69" s="74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B70" s="74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" s="75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C71" s="77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="19" x14ac:dyDescent="0.25">
@@ -2144,10 +2144,10 @@
     </row>
     <row r="77" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B77" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
@@ -2155,23 +2155,23 @@
         <v>28</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B79" s="74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C79" s="75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C80" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
@@ -2179,31 +2179,31 @@
         <v>42</v>
       </c>
       <c r="C81" s="75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C82" s="75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" s="75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B84" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C84" s="75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="42" x14ac:dyDescent="0.2">
@@ -2211,23 +2211,23 @@
         <v>43</v>
       </c>
       <c r="C85" s="75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86" s="75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
@@ -2240,34 +2240,34 @@
     </row>
     <row r="89" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B89" s="74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C89" s="75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B90" s="74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C90" s="75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="B91" s="74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B92" s="74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C92" s="75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
@@ -2283,12 +2283,12 @@
         <v>45</v>
       </c>
       <c r="C94" s="77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="19" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2301,7 +2301,7 @@
     </row>
     <row r="100" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B100" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>30</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>25</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>25</v>
@@ -2325,42 +2325,42 @@
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B105" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B106" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B107" s="76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C107" s="77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="19" x14ac:dyDescent="0.25">
@@ -2377,7 +2377,7 @@
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2423,23 +2423,23 @@
         <v>24</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
@@ -2460,10 +2460,10 @@
     </row>
     <row r="12" spans="2:3" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -2516,7 +2516,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2528,7 +2528,7 @@
       <c r="E5" s="83"/>
       <c r="F5" s="34"/>
       <c r="G5" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
@@ -2575,23 +2575,23 @@
         <v>29</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>33</v>
@@ -2603,28 +2603,28 @@
         <v>37</v>
       </c>
       <c r="N7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>108</v>
       </c>
       <c r="P7" s="21" t="s">
         <v>38</v>
       </c>
       <c r="Q7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="R7" s="62" t="s">
         <v>109</v>
-      </c>
-      <c r="R7" s="62" t="s">
-        <v>110</v>
       </c>
       <c r="S7" s="21" t="s">
         <v>39</v>
       </c>
       <c r="T7" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U7" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
@@ -2635,14 +2635,14 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N8" s="25"/>
       <c r="O8" s="19"/>
@@ -2663,14 +2663,14 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N9" s="25"/>
       <c r="O9" s="19"/>
@@ -2679,7 +2679,7 @@
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U9" s="25"/>
     </row>
@@ -2696,7 +2696,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N10" s="25"/>
       <c r="O10" s="19"/>
@@ -2705,7 +2705,7 @@
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U10" s="25"/>
     </row>
@@ -2721,7 +2721,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N11" s="25"/>
       <c r="O11" s="19"/>
@@ -2744,7 +2744,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N12" s="25"/>
       <c r="O12" s="19"/>
@@ -2767,7 +2767,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="19"/>
@@ -2791,7 +2791,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
       <c r="M14" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
@@ -2865,13 +2865,13 @@
     </row>
     <row r="4" spans="2:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
       <c r="E4" s="24"/>
       <c r="F4" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="31"/>
@@ -2892,7 +2892,7 @@
       <c r="W4" s="33"/>
       <c r="X4" s="34"/>
       <c r="Y4" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z4" s="35"/>
       <c r="AA4" s="35"/>
@@ -2902,10 +2902,10 @@
       <c r="AE4" s="35"/>
       <c r="AF4" s="34"/>
       <c r="AG4" s="84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH4" s="84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2913,7 +2913,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="66"/>
       <c r="H5" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -2923,7 +2923,7 @@
       <c r="N5" s="36"/>
       <c r="O5" s="18"/>
       <c r="P5" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
@@ -2931,12 +2931,12 @@
       <c r="T5" s="30"/>
       <c r="U5" s="18"/>
       <c r="V5" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W5" s="20"/>
       <c r="X5" s="37"/>
       <c r="Y5" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z5" s="29"/>
       <c r="AA5" s="29"/>
@@ -2962,7 +2962,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="18"/>
       <c r="L6" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M6" s="29"/>
       <c r="N6" s="29"/>
@@ -2977,12 +2977,12 @@
       <c r="W6" s="39"/>
       <c r="X6" s="37"/>
       <c r="Y6" s="88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z6" s="88"/>
       <c r="AA6" s="41"/>
       <c r="AB6" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC6" s="87"/>
       <c r="AD6" s="87"/>
@@ -3038,49 +3038,49 @@
         <v>10</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="86"/>
       <c r="G8" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="J8" s="42" t="s">
         <v>70</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>71</v>
       </c>
       <c r="K8" s="43"/>
       <c r="L8" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M8" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="42" t="s">
         <v>118</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>119</v>
       </c>
       <c r="O8" s="43"/>
       <c r="P8" s="21" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="R8" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="S8" s="21" t="s">
+      <c r="T8" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="T8" s="21" t="s">
-        <v>114</v>
       </c>
       <c r="U8" s="43"/>
       <c r="V8" s="21" t="s">
@@ -3091,23 +3091,23 @@
       </c>
       <c r="X8" s="21"/>
       <c r="Y8" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z8" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA8" s="21"/>
       <c r="AB8" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC8" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE8" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="AC8" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD8" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>117</v>
       </c>
       <c r="AF8" s="21"/>
       <c r="AG8" s="86"/>
@@ -3131,7 +3131,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
@@ -3139,7 +3139,7 @@
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W9" s="19"/>
       <c r="X9" s="19"/>
@@ -3170,7 +3170,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
@@ -3178,7 +3178,7 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
       <c r="V10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
@@ -3368,7 +3368,7 @@
       <c r="D4" s="69"/>
       <c r="E4" s="68"/>
       <c r="F4" s="91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="91"/>
@@ -3377,7 +3377,7 @@
       <c r="K4" s="91"/>
       <c r="L4" s="70"/>
       <c r="M4" s="91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N4" s="91"/>
       <c r="O4" s="91"/>
@@ -3385,7 +3385,7 @@
       <c r="Q4" s="91"/>
       <c r="R4" s="70"/>
       <c r="S4" s="91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T4" s="91"/>
       <c r="U4" s="37"/>
@@ -3403,7 +3403,7 @@
       <c r="G5" s="87"/>
       <c r="H5" s="18"/>
       <c r="I5" s="87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="87"/>
       <c r="K5" s="87"/>
@@ -3444,46 +3444,46 @@
     </row>
     <row r="7" spans="2:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="86"/>
       <c r="D7" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="G7" s="42" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>71</v>
       </c>
       <c r="H7" s="43"/>
       <c r="I7" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="42" t="s">
         <v>118</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>119</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="21" t="s">
         <v>32</v>
       </c>
       <c r="N7" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="O7" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="21" t="s">
+      <c r="Q7" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>114</v>
       </c>
       <c r="R7" s="43"/>
       <c r="S7" s="21" t="s">
@@ -3507,7 +3507,7 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
@@ -3515,7 +3515,7 @@
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
@@ -3533,7 +3533,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -3541,7 +3541,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
@@ -3968,21 +3968,21 @@
   <sheetData>
     <row r="8" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="87"/>
       <c r="F9" s="87"/>
       <c r="G9" s="53"/>
       <c r="H9" s="84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
@@ -3991,23 +3991,23 @@
     <row r="10" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="86"/>
       <c r="D10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>86</v>
-      </c>
       <c r="G10" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="86"/>
       <c r="I10" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="54"/>
     </row>
@@ -4054,30 +4054,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
-    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3aa8ea1b9f2e27c2fdef6ef4056186e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16259e29b70fac56f05f7b64cc1f875d" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
@@ -4359,6 +4335,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
+    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDE771C4-25E3-4DCA-8FB0-1AA09F9D9ED9}">
   <ds:schemaRefs>
@@ -4368,32 +4368,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3B8A-2D8D-4EE0-964D-A16E3E636991}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
-    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9846E218-2C67-4B45-A7CB-841EE05F366A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BCF526-A26D-4C86-953C-B4AF88BC71EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4411,4 +4385,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9846E218-2C67-4B45-A7CB-841EE05F366A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3B8A-2D8D-4EE0-964D-A16E3E636991}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
+    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
+    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AEF_template/AEF_CMA6_second_iteration.xlsx
+++ b/AEF_template/AEF_CMA6_second_iteration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfccc365.sharepoint.com/sites/Mitigation/Paris Agreement Article 6/Article 6.2/03_CARP/consistency/AEF_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0B9CFA14-F56A-4387-990D-A503B02D9DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{999BFF26-2DCF-1A4B-85F0-A2DD9FAE038D}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0B9CFA14-F56A-4387-990D-A503B02D9DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E11004C4-E51A-4815-A4B6-D8D4E3326410}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="2680" windowWidth="22720" windowHeight="22960" tabRatio="618" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24500" windowHeight="20600" tabRatio="618" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -225,6 +225,9 @@
     <t>Year</t>
   </si>
   <si>
+    <t>dd/mm/yyyy</t>
+  </si>
+  <si>
     <t>Authorization details</t>
   </si>
   <si>
@@ -691,9 +694,6 @@
   </si>
   <si>
     <t>Unique identifier of the acquiring participating Party, or where the acquisition occurs by the Adaptation Fund, a unique identifier for the Adaptation Fund, as per common nomenclatures. This field is applicable to the actions type ‘first transfer’ and ‘transfer’. In other cases, this field is reported as ‘Not applicable’ (NA).</t>
-  </si>
-  <si>
-    <t>d/m/yyyy</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1586,10 +1586,10 @@
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1608,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3F6B9B-E1BC-4D08-AE97-F15181187A83}">
   <dimension ref="B1:C108"/>
   <sheetViews>
-    <sheetView topLeftCell="B39" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B50" sqref="A50:XFD50"/>
+    <sheetView topLeftCell="B12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1625,12 +1625,12 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="19" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
     </row>
     <row r="8" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B8" s="74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="75" t="s">
         <v>23</v>
@@ -1680,18 +1680,18 @@
     </row>
     <row r="10" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B10" s="74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B11" s="74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
@@ -1712,16 +1712,16 @@
     </row>
     <row r="14" spans="2:3" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="78" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:3" ht="19" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1737,7 +1737,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -1750,10 +1750,10 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
@@ -1761,15 +1761,15 @@
         <v>31</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B24" s="74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
@@ -1777,23 +1777,23 @@
         <v>32</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="46" x14ac:dyDescent="0.2">
       <c r="B26" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B27" s="74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="28" x14ac:dyDescent="0.2">
@@ -1822,18 +1822,18 @@
     </row>
     <row r="31" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B31" s="74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B32" s="74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="70" x14ac:dyDescent="0.2">
@@ -1841,23 +1841,23 @@
         <v>38</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B34" s="74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B35" s="74" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="28" x14ac:dyDescent="0.2">
@@ -1865,23 +1865,23 @@
         <v>39</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B37" s="74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C38" s="77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="19" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
@@ -1915,7 +1915,7 @@
     </row>
     <row r="45" spans="2:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="80" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C45" s="81" t="s">
         <v>25</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
@@ -1934,23 +1934,23 @@
         <v>28</v>
       </c>
       <c r="C47" s="75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B48" s="74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B49" s="74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C49" s="75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1958,31 +1958,31 @@
         <v>42</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B53" s="74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="42" x14ac:dyDescent="0.2">
@@ -1990,23 +1990,23 @@
         <v>43</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="74" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
@@ -2019,34 +2019,34 @@
     </row>
     <row r="58" spans="2:3" ht="46" x14ac:dyDescent="0.2">
       <c r="B58" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" s="75" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B59" s="74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="B60" s="74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C60" s="75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B61" s="74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
@@ -2062,71 +2062,71 @@
         <v>45</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="70" x14ac:dyDescent="0.2">
       <c r="B64" s="74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C64" s="75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="70" x14ac:dyDescent="0.2">
       <c r="B65" s="74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C65" s="75" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="84" x14ac:dyDescent="0.2">
       <c r="B66" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B67" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C67" s="75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B68" s="74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B69" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B70" s="74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C70" s="75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="19" x14ac:dyDescent="0.25">
@@ -2144,10 +2144,10 @@
     </row>
     <row r="77" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B77" s="74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C77" s="75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
@@ -2155,23 +2155,23 @@
         <v>28</v>
       </c>
       <c r="C78" s="75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B79" s="74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C79" s="75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C80" s="75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
@@ -2179,31 +2179,31 @@
         <v>42</v>
       </c>
       <c r="C81" s="75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C82" s="75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C83" s="75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B84" s="74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C84" s="75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="42" x14ac:dyDescent="0.2">
@@ -2211,23 +2211,23 @@
         <v>43</v>
       </c>
       <c r="C85" s="75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="74" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C86" s="75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
@@ -2240,34 +2240,34 @@
     </row>
     <row r="89" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B89" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C89" s="75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B90" s="74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C90" s="75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="B91" s="74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C91" s="75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B92" s="74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C92" s="75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
@@ -2283,12 +2283,12 @@
         <v>45</v>
       </c>
       <c r="C94" s="77" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="19" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2301,7 +2301,7 @@
     </row>
     <row r="100" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B100" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>30</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>25</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>25</v>
@@ -2325,42 +2325,42 @@
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B105" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B106" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B107" s="76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C107" s="77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="19" x14ac:dyDescent="0.25">
@@ -2376,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2423,23 +2423,23 @@
         <v>24</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
@@ -2460,10 +2460,10 @@
     </row>
     <row r="12" spans="2:3" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="60" t="s">
         <v>102</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -2484,7 +2484,7 @@
   <dimension ref="B3:U14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:U14"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2528,7 +2528,7 @@
       <c r="E5" s="83"/>
       <c r="F5" s="34"/>
       <c r="G5" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
@@ -2575,23 +2575,23 @@
         <v>29</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>33</v>
@@ -2603,28 +2603,28 @@
         <v>37</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P7" s="21" t="s">
         <v>38</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R7" s="62" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S7" s="21" t="s">
         <v>39</v>
       </c>
       <c r="T7" s="64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U7" s="64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
@@ -2635,14 +2635,14 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N8" s="25"/>
       <c r="O8" s="19"/>
@@ -2663,14 +2663,14 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" s="25"/>
       <c r="O9" s="19"/>
@@ -2679,7 +2679,7 @@
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U9" s="25"/>
     </row>
@@ -2696,7 +2696,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N10" s="25"/>
       <c r="O10" s="19"/>
@@ -2705,7 +2705,7 @@
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U10" s="25"/>
     </row>
@@ -2721,7 +2721,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N11" s="25"/>
       <c r="O11" s="19"/>
@@ -2744,7 +2744,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N12" s="25"/>
       <c r="O12" s="19"/>
@@ -2767,7 +2767,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="19"/>
@@ -2791,7 +2791,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
       <c r="M14" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
@@ -2815,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903CFF46-A00D-4851-8A69-F36031122945}">
   <dimension ref="B3:AH13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2865,13 +2865,15 @@
     </row>
     <row r="4" spans="2:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
-      <c r="E4" s="24"/>
+      <c r="E4" s="85" t="s">
+        <v>68</v>
+      </c>
       <c r="F4" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="31"/>
@@ -2892,7 +2894,7 @@
       <c r="W4" s="33"/>
       <c r="X4" s="34"/>
       <c r="Y4" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z4" s="35"/>
       <c r="AA4" s="35"/>
@@ -2902,18 +2904,18 @@
       <c r="AE4" s="35"/>
       <c r="AF4" s="34"/>
       <c r="AG4" s="84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AH4" s="84" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="24"/>
+      <c r="E5" s="85"/>
       <c r="F5" s="32"/>
       <c r="G5" s="66"/>
       <c r="H5" s="32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -2923,7 +2925,7 @@
       <c r="N5" s="36"/>
       <c r="O5" s="18"/>
       <c r="P5" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
@@ -2931,12 +2933,12 @@
       <c r="T5" s="30"/>
       <c r="U5" s="18"/>
       <c r="V5" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W5" s="20"/>
       <c r="X5" s="37"/>
       <c r="Y5" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z5" s="29"/>
       <c r="AA5" s="29"/>
@@ -2952,7 +2954,7 @@
       <c r="B6" s="24"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
-      <c r="E6" s="24"/>
+      <c r="E6" s="85"/>
       <c r="F6" s="85" t="s">
         <v>28</v>
       </c>
@@ -2962,7 +2964,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="18"/>
       <c r="L6" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M6" s="29"/>
       <c r="N6" s="29"/>
@@ -2977,12 +2979,12 @@
       <c r="W6" s="39"/>
       <c r="X6" s="37"/>
       <c r="Y6" s="88" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z6" s="88"/>
       <c r="AA6" s="41"/>
       <c r="AB6" s="87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC6" s="87"/>
       <c r="AD6" s="87"/>
@@ -2995,7 +2997,7 @@
       <c r="B7" s="24"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="85"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
@@ -3038,49 +3040,47 @@
         <v>10</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>67</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E8" s="86"/>
       <c r="F8" s="86"/>
       <c r="G8" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K8" s="43"/>
       <c r="L8" s="44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M8" s="42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N8" s="42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O8" s="43"/>
       <c r="P8" s="21" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U8" s="43"/>
       <c r="V8" s="21" t="s">
@@ -3091,23 +3091,23 @@
       </c>
       <c r="X8" s="21"/>
       <c r="Y8" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z8" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" s="21"/>
       <c r="AB8" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC8" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD8" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE8" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF8" s="21"/>
       <c r="AG8" s="86"/>
@@ -3131,7 +3131,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
@@ -3139,7 +3139,7 @@
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W9" s="19"/>
       <c r="X9" s="19"/>
@@ -3170,7 +3170,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
@@ -3178,7 +3178,7 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
       <c r="V10" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
@@ -3295,8 +3295,9 @@
       <c r="AH13" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="AH4:AH8"/>
+    <mergeCell ref="E4:E8"/>
     <mergeCell ref="AB6:AE6"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="AG4:AG8"/>
@@ -3368,7 +3369,7 @@
       <c r="D4" s="69"/>
       <c r="E4" s="68"/>
       <c r="F4" s="91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="91"/>
@@ -3377,7 +3378,7 @@
       <c r="K4" s="91"/>
       <c r="L4" s="70"/>
       <c r="M4" s="91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N4" s="91"/>
       <c r="O4" s="91"/>
@@ -3385,7 +3386,7 @@
       <c r="Q4" s="91"/>
       <c r="R4" s="70"/>
       <c r="S4" s="91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T4" s="91"/>
       <c r="U4" s="37"/>
@@ -3403,7 +3404,7 @@
       <c r="G5" s="87"/>
       <c r="H5" s="18"/>
       <c r="I5" s="87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J5" s="87"/>
       <c r="K5" s="87"/>
@@ -3444,46 +3445,46 @@
     </row>
     <row r="7" spans="2:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="86"/>
       <c r="D7" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" s="43"/>
       <c r="I7" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="21" t="s">
         <v>32</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R7" s="43"/>
       <c r="S7" s="21" t="s">
@@ -3507,7 +3508,7 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
@@ -3515,7 +3516,7 @@
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
@@ -3533,7 +3534,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -3541,7 +3542,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
@@ -3968,21 +3969,21 @@
   <sheetData>
     <row r="8" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="84" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D9" s="87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" s="87"/>
       <c r="F9" s="87"/>
       <c r="G9" s="53"/>
       <c r="H9" s="84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
@@ -3991,23 +3992,23 @@
     <row r="10" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="86"/>
       <c r="D10" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10" s="86"/>
       <c r="I10" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10" s="54"/>
     </row>
@@ -4049,11 +4050,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
+    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9d8c265a-5436-43a7-80c1-713d2827ffde" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3aa8ea1b9f2e27c2fdef6ef4056186e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16259e29b70fac56f05f7b64cc1f875d" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
@@ -4335,7 +4351,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4344,31 +4360,34 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
-    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3B8A-2D8D-4EE0-964D-A16E3E636991}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDE771C4-25E3-4DCA-8FB0-1AA09F9D9ED9}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{706D9FEE-4340-4D31-8407-5C21BDBCEC55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BCF526-A26D-4C86-953C-B4AF88BC71EA}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47999317-191F-42EB-A12B-D9292F90B5CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -4387,28 +4406,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9846E218-2C67-4B45-A7CB-841EE05F366A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3B8A-2D8D-4EE0-964D-A16E3E636991}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
-    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
-    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>